--- a/outputs/semantic_scholar_3d_report_20250716.xlsx
+++ b/outputs/semantic_scholar_3d_report_20250716.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hardware for AI - Architecture" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hardware for AI - Circuit" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hardware for AI - Others" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hardware for AI - Hardware Othe" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
